--- a/Test Cases/Iteration 6/Iteration 6 Test Cases v3.xlsx
+++ b/Test Cases/Iteration 6/Iteration 6 Test Cases v3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="144">
   <si>
     <t>No</t>
   </si>
@@ -402,13 +402,6 @@
   <si>
     <t xml:space="preserve">Access the URL: viewscreenings.html 
 </t>
-  </si>
-  <si>
-    <t>Verify that screenings created in test cases 1 - 4 were shown 
-Hand Foot Mouth Disease, Cancers, Cancer, Chicken Pox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the 'Add Screenings' from the Screenings drop down list on the header  </t>
   </si>
   <si>
     <t xml:space="preserve">Edit Screening (Type: All) </t>
@@ -521,15 +514,6 @@
   <si>
     <t xml:space="preserve">Access the URL: viewscreenings.html
 Demographic: Infant 
-Age Group: 0 - 10 in drop down list  
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to age group 0  or 1 year old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
 Age Group: 20 - 30 in drop down list  
 </t>
   </si>
@@ -591,13 +575,6 @@
   </si>
   <si>
     <t>Add Screenings (Type: Infant)</t>
-  </si>
-  <si>
-    <t>Age : 0
-Common illness:  Hepatitis B
-Recommended screening: BCG Vaccine
-Demographic affected: Infant
-Regularity : 0</t>
   </si>
   <si>
     <t xml:space="preserve">Access the URL: viewscreenings.html
@@ -658,6 +635,54 @@
   </si>
   <si>
     <t>Type are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t>Verify that logged in user can access the link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the 'View Screenings' from the Screenings drop down list on the header  </t>
+  </si>
+  <si>
+    <t>Verify that logged in user can access the view screenings tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Infant 
+Age Group: 0 - 2
+</t>
+  </si>
+  <si>
+    <t>The screening table should show screenings belonging to age group 0  or 2 year old</t>
+  </si>
+  <si>
+    <t>Age : 0
+Common illness:  Hepatitis B
+Recommended screening:Hepatitis B-2nd Dose
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Age : 1 month
+Common illness:  Hepatitis B
+Recommended screening: Hepatitis B-1st Dose
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Value specific validation</t>
+  </si>
+  <si>
+    <t>Access add screenings page, click 'Add'</t>
+  </si>
+  <si>
+    <t>Error message show to input empty fields</t>
+  </si>
+  <si>
+    <t>Access view screenings page, select Obesity screening for female and click 'Edit'
+Remove all values and click 'Update'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access view screenings page, click 'generate' </t>
   </si>
 </sst>
 </file>
@@ -933,6 +958,182 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4526058" y="15450670"/>
+          <a:ext cx="2470149" cy="2077171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3552995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3715307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FD9077-400C-4FDE-B833-6F1CC24B75DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540250" y="11633200"/>
+          <a:ext cx="3432345" cy="3499407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106458</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>223370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2576607</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2300541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F6D0FB-E7BD-4793-A9D0-812C7C41E7A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4526058" y="15450670"/>
+          <a:ext cx="2470149" cy="2077171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3552995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3707836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BF870A-A44F-423F-A570-B0787F576AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540250" y="11625729"/>
+          <a:ext cx="3432345" cy="3499407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106458</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>230841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2576607</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2308012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBAB03C-BAF6-407A-A557-06996B57BFDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4526058" y="15458141"/>
           <a:ext cx="2470149" cy="2077171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3274,10 +3475,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3399,7 +3600,7 @@
         <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3415,10 +3616,10 @@
         <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -3431,13 +3632,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3453,10 +3654,10 @@
         <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3469,13 +3670,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3488,13 +3689,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -3513,7 +3714,7 @@
         <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -3526,13 +3727,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -3545,13 +3746,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -3564,13 +3765,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -3583,13 +3784,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3597,13 +3798,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3611,13 +3812,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="93" x14ac:dyDescent="0.35">
@@ -3625,10 +3826,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>79</v>
@@ -3639,10 +3840,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>79</v>
@@ -3653,10 +3854,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>79</v>
@@ -3667,27 +3868,27 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -3695,41 +3896,41 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -3737,18 +3938,70 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases/Iteration 6/Iteration 6 Test Cases v3.xlsx
+++ b/Test Cases/Iteration 6/Iteration 6 Test Cases v3.xlsx
@@ -390,46 +390,227 @@
     <t xml:space="preserve">Add Screening (Type : Infant) </t>
   </si>
   <si>
-    <t>Age : 1
+    <t xml:space="preserve">View Screenings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html 
+</t>
+  </si>
+  <si>
+    <t>Success Message shown, screening details updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that screening - Hand Foot Mouth Disease from Test Case 7 has been updated  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening updated from Test Case 7 Age : 0
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: All
+Regularity : 0
+</t>
+  </si>
+  <si>
+    <t>Redirect back to View Screening webpage, 'Hand Foot Mouth Disease' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
+  </si>
+  <si>
+    <t>Add Screening : Wrong Age Group</t>
+  </si>
+  <si>
+    <t>Age : 9
+Common illness:  Fever
+Recommended screening:  - 
+Demographic affected: Infant, Female, Male
+Regularity : 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Message Shown (Infant cannot be above 1 years old) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure that Test Case 10 is not added in to the screenings table </t>
+  </si>
+  <si>
+    <t>View Screenings with Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Infant 
+Age Group: 20 - 30 in drop down list  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The screening table should show no result  / user not able to select any age in the drop down list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Male
+Age Group: 20 - 30 in drop down list  
+</t>
+  </si>
+  <si>
+    <t>The screening table should show screenings belonging to male, age group between 20 - 30 years old</t>
+  </si>
+  <si>
+    <t>View Clients Base on Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Male
+Age Group: 20 - 30 in drop down list  
+Illness: Cancers, Click 'View Client List' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 Names should shown. 
+</t>
+  </si>
+  <si>
+    <t>6 Names should shown</t>
+  </si>
+  <si>
+    <t>Add Screenings (Type: Men and Female)</t>
+  </si>
+  <si>
+    <t>Age : 18
+Common illness:  Obesity
+Recommended screening: BMI &amp; Waist Circumference 
+Demographic affected: Male and Female
+Regularity : 1</t>
+  </si>
+  <si>
+    <t>Age : 18
+Common illness:  Hypertension (High Blood Pressure) 
+Recommended screening: Blood Pressure Measurement 
+Demographic affected: Male and Female
+Regularity : 2</t>
+  </si>
+  <si>
+    <t>Add Screenings (Type: Female)</t>
+  </si>
+  <si>
+    <t>Age : 18
+Common illness:  Breast Cancer
+Recommended screening: Clinical Breast Exam 
+Demographic affected: Female
+Regularity : 3</t>
+  </si>
+  <si>
+    <t>Add Screenings (Type: Infant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Infant
+Illness: Chicken Pox, Click 'View Client List' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening updated from Test Case 4 
+Age : 1
+Common illness:  Chicken Pox  
+Recommended screening:  - 
+Demographic affected: Infant
+Regularity : 1 
+</t>
+  </si>
+  <si>
+    <t>Redirect back to View Screening webpage, 'Chicken Pox' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Screenings (By Starting Age) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Starting Age Header to sort the age (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Starting Age Header to sort the age (descending to ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Screenings (By conditionName)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Screenings (By screening)  </t>
+  </si>
+  <si>
+    <t>Sort Screenings (By type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Condition Name Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Screening Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Type Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t>Condition names are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t>Age are sorted in ascending order starting from 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age are sorted in descending order </t>
+  </si>
+  <si>
+    <t>Screenings are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t>Type are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t>Verify that logged in user can access the link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the 'View Screenings' from the Screenings drop down list on the header  </t>
+  </si>
+  <si>
+    <t>Verify that logged in user can access the view screenings tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Infant 
+Age Group: 0 - 2
+</t>
+  </si>
+  <si>
+    <t>The screening table should show screenings belonging to age group 0  or 2 year old</t>
+  </si>
+  <si>
+    <t>Value specific validation</t>
+  </si>
+  <si>
+    <t>Access add screenings page, click 'Add'</t>
+  </si>
+  <si>
+    <t>Error message show to input empty fields</t>
+  </si>
+  <si>
+    <t>Access view screenings page, select Obesity screening for female and click 'Edit'
+Remove all values and click 'Update'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access view screenings page, click 'generate' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age : 1 month 
 Common illness:  Chicken Pox
 Recommended screening:  - 
 Demographic affected: Infant
-Regularity : 1 Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Screenings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Screening (Type: All) </t>
+Regularity : 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Screening (Type: Female) </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Age : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">Age : 5
 Common illness:  Hand Foot Mouth Disease  
 Recommended screening:  Body Checkup
 Demographic affected: </t>
@@ -443,7 +624,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Infant, Female, Male</t>
+      <t>Female</t>
     </r>
     <r>
       <rPr>
@@ -469,220 +650,18 @@
     </r>
   </si>
   <si>
-    <t>Success Message shown, screening details updated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that screening - Hand Foot Mouth Disease from Test Case 7 has been updated  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening updated from Test Case 7 Age : 0
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: All
-Regularity : 0
-</t>
-  </si>
-  <si>
-    <t>Redirect back to View Screening webpage, 'Hand Foot Mouth Disease' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
-  </si>
-  <si>
-    <t>Add Screening : Wrong Age Group</t>
-  </si>
-  <si>
-    <t>Age : 9
-Common illness:  Fever
-Recommended screening:  - 
-Demographic affected: Infant, Female, Male
-Regularity : 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error Message Shown (Infant cannot be above 1 years old) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure that Test Case 10 is not added in to the screenings table </t>
-  </si>
-  <si>
-    <t>View Screenings with Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The screening table should show no result  / user not able to select any age in the drop down list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to male, age group between 20 - 30 years old</t>
-  </si>
-  <si>
-    <t>View Clients Base on Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-Illness: Cancers, Click 'View Client List' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 Names should shown. 
-</t>
-  </si>
-  <si>
-    <t>6 Names should shown</t>
-  </si>
-  <si>
-    <t>Add Screenings (Type: Men and Female)</t>
-  </si>
-  <si>
-    <t>Age : 18
-Common illness:  Obesity
-Recommended screening: BMI &amp; Waist Circumference 
-Demographic affected: Male and Female
-Regularity : 1</t>
-  </si>
-  <si>
-    <t>Age : 18
-Common illness:  Hypertension (High Blood Pressure) 
-Recommended screening: Blood Pressure Measurement 
-Demographic affected: Male and Female
-Regularity : 2</t>
-  </si>
-  <si>
-    <t>Add Screenings (Type: Female)</t>
-  </si>
-  <si>
-    <t>Age : 18
-Common illness:  Breast Cancer
-Recommended screening: Clinical Breast Exam 
-Demographic affected: Female
-Regularity : 3</t>
-  </si>
-  <si>
-    <t>Add Screenings (Type: Infant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant
-Illness: Chicken Pox, Click 'View Client List' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening updated from Test Case 4 
-Age : 1
-Common illness:  Chicken Pox  
-Recommended screening:  - 
-Demographic affected: Infant
-Regularity : 1 
-</t>
-  </si>
-  <si>
-    <t>Redirect back to View Screening webpage, 'Chicken Pox' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Screenings (By Starting Age) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Starting Age Header to sort the age (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Starting Age Header to sort the age (descending to ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Screenings (By conditionName)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Screenings (By screening)  </t>
-  </si>
-  <si>
-    <t>Sort Screenings (By type)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Condition Name Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Screening Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Type Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t>Condition names are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
-    <t>Age are sorted in ascending order starting from 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age are sorted in descending order </t>
-  </si>
-  <si>
-    <t>Screenings are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
-    <t>Type are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
-    <t>Verify that logged in user can access the link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the 'View Screenings' from the Screenings drop down list on the header  </t>
-  </si>
-  <si>
-    <t>Verify that logged in user can access the view screenings tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 0 - 2
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to age group 0  or 2 year old</t>
-  </si>
-  <si>
-    <t>Age : 0
+    <t>Age : 1 month
 Common illness:  Hepatitis B
 Recommended screening:Hepatitis B-2nd Dose
 Demographic affected: Infant
 Regularity : 0</t>
   </si>
   <si>
-    <t>Age : 1 month
+    <t>Age : 0 month
 Common illness:  Hepatitis B
 Recommended screening: Hepatitis B-1st Dose
 Demographic affected: Infant
 Regularity : 0</t>
-  </si>
-  <si>
-    <t>Value specific validation</t>
-  </si>
-  <si>
-    <t>Access add screenings page, click 'Add'</t>
-  </si>
-  <si>
-    <t>Error message show to input empty fields</t>
-  </si>
-  <si>
-    <t>Access view screenings page, select Obesity screening for female and click 'Edit'
-Remove all values and click 'Update'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access view screenings page, click 'generate' </t>
   </si>
 </sst>
 </file>
@@ -1143,6 +1122,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3552995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3715307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C10E5C2-1321-45D9-8C77-018D55D80209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540250" y="11633200"/>
+          <a:ext cx="3432345" cy="3499407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106458</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>223370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2576607</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2300541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58991F1B-3D14-427C-A8E6-541C7B387687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4526058" y="15450670"/>
+          <a:ext cx="2470149" cy="2077171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3552995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3707836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB7323C-2875-4F45-BCA0-E38FC1C737AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540250" y="11625729"/>
+          <a:ext cx="3432345" cy="3499407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106458</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>230841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2576607</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2308012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6232EEBC-9687-4F47-911E-B279BB91D423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4526058" y="15458141"/>
+          <a:ext cx="2470149" cy="2077171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3477,8 +3632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3578,7 +3733,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>79</v>
@@ -3594,13 +3749,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3613,13 +3768,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -3632,13 +3787,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3651,13 +3806,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3670,13 +3825,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3689,13 +3844,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -3708,13 +3863,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -3727,13 +3882,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -3746,13 +3901,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -3765,13 +3920,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -3784,13 +3939,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3798,13 +3953,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3812,13 +3967,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="93" x14ac:dyDescent="0.35">
@@ -3826,10 +3981,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>79</v>
@@ -3840,10 +3995,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>79</v>
@@ -3854,10 +4009,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>79</v>
@@ -3868,10 +4023,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>79</v>
@@ -3882,10 +4037,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>79</v>
@@ -3896,13 +4051,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -3910,13 +4065,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -3924,13 +4079,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -3938,13 +4093,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -3952,13 +4107,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -3966,13 +4121,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -3980,13 +4135,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -3994,13 +4149,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Test Cases/Iteration 6/Iteration 6 Test Cases v3.xlsx
+++ b/Test Cases/Iteration 6/Iteration 6 Test Cases v3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shu Yan\Desktop\Ulink\Test Cases\Iteration 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\FYP-GIT\Ulink\Test Cases\Iteration 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="4875" yWindow="1425" windowWidth="25515" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
-    <sheet name="Login &amp; Account Management" sheetId="21" r:id="rId2"/>
-    <sheet name="Screenings" sheetId="23" r:id="rId3"/>
+    <sheet name="Screenings" sheetId="24" r:id="rId2"/>
+    <sheet name="Login &amp; Account Management" sheetId="21" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="132">
   <si>
     <t>No</t>
   </si>
@@ -424,55 +424,10 @@
     <t>Add Screening : Wrong Age Group</t>
   </si>
   <si>
-    <t>Age : 9
-Common illness:  Fever
-Recommended screening:  - 
-Demographic affected: Infant, Female, Male
-Regularity : 0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Error Message Shown (Infant cannot be above 1 years old) </t>
   </si>
   <si>
     <t xml:space="preserve">Ensure that Test Case 10 is not added in to the screenings table </t>
-  </si>
-  <si>
-    <t>View Screenings with Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The screening table should show no result  / user not able to select any age in the drop down list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to male, age group between 20 - 30 years old</t>
-  </si>
-  <si>
-    <t>View Clients Base on Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-Illness: Cancers, Click 'View Client List' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 Names should shown. 
-</t>
-  </si>
-  <si>
-    <t>6 Names should shown</t>
   </si>
   <si>
     <t>Add Screenings (Type: Men and Female)</t>
@@ -503,12 +458,6 @@
   </si>
   <si>
     <t>Add Screenings (Type: Infant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant
-Illness: Chicken Pox, Click 'View Client List' 
-</t>
   </si>
   <si>
     <t xml:space="preserve">Delete Screening updated from Test Case 4 
@@ -574,15 +523,6 @@
     <t>Verify that logged in user can access the view screenings tab</t>
   </si>
   <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 0 - 2
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to age group 0  or 2 year old</t>
-  </si>
-  <si>
     <t>Value specific validation</t>
   </si>
   <si>
@@ -609,8 +549,50 @@
     <t xml:space="preserve">Edit Screening (Type: Female) </t>
   </si>
   <si>
+    <t>Age : 1 month
+Common illness:  Hepatitis B
+Recommended screening:Hepatitis B-2nd Dose
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Age : 0 month
+Common illness:  Hepatitis B
+Recommended screening: Hepatitis B-1st Dose
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Age : 25
+Common illness:  Fever
+Recommended screening:  - 
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Age : 5
+      <t xml:space="preserve">Age : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Common illness:  Hand Foot Mouth Disease  
 Recommended screening:  Body Checkup
 Demographic affected: </t>
@@ -646,22 +628,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Regularity : 0</t>
+      <t>Regularity : 1</t>
     </r>
-  </si>
-  <si>
-    <t>Age : 1 month
-Common illness:  Hepatitis B
-Recommended screening:Hepatitis B-2nd Dose
-Demographic affected: Infant
-Regularity : 0</t>
-  </si>
-  <si>
-    <t>Age : 0 month
-Common illness:  Hepatitis B
-Recommended screening: Hepatitis B-1st Dose
-Demographic affected: Infant
-Regularity : 0</t>
   </si>
 </sst>
 </file>
@@ -700,12 +668,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -720,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -748,6 +722,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -770,27 +750,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="3432345" cy="3499407"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B78076E-362F-4340-80F5-2861C6BC5F76}"/>
-            </a:ext>
-          </a:extLst>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -804,7 +775,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4540250" y="12617450"/>
+          <a:off x="2149475" y="2400300"/>
           <a:ext cx="3432345" cy="3499407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -813,28 +784,19 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="2470149" cy="2077171"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A9BCE6-A192-4E68-B4E1-B150F7F72B7F}"/>
-            </a:ext>
-          </a:extLst>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -848,7 +810,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4521576" y="16427076"/>
+          <a:off x="2135283" y="2400300"/>
           <a:ext cx="2470149" cy="2077171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -857,28 +819,19 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="3432345" cy="3499407"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402B30F3-2885-4CA4-9E39-69CC0A7B1DD4}"/>
-            </a:ext>
-          </a:extLst>
+          <a:extLst/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -892,7 +845,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4540250" y="11633200"/>
+          <a:off x="2149475" y="2400300"/>
           <a:ext cx="3432345" cy="3499407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -901,28 +854,19 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="2470149" cy="2077171"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70524F09-7363-4BF6-AF22-E740D3689C0B}"/>
-            </a:ext>
-          </a:extLst>
+          <a:extLst/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -936,7 +880,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4526058" y="15450670"/>
+          <a:off x="2135283" y="2400300"/>
           <a:ext cx="2470149" cy="2077171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -945,359 +889,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FD9077-400C-4FDE-B833-6F1CC24B75DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11633200"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F6D0FB-E7BD-4793-A9D0-812C7C41E7A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15450670"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>208429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3707836</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BF870A-A44F-423F-A570-B0787F576AC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11625729"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>230841</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2308012</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBAB03C-BAF6-407A-A557-06996B57BFDC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15458141"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C10E5C2-1321-45D9-8C77-018D55D80209}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11633200"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58991F1B-3D14-427C-A8E6-541C7B387687}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15450670"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>208429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3707836</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB7323C-2875-4F45-BCA0-E38FC1C737AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11625729"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>230841</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2308012</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6232EEBC-9687-4F47-911E-B279BB91D423}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15458141"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1570,16 +1162,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1619,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1639,7 +1231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1647,7 +1239,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1655,7 +1247,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1663,7 +1255,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1671,7 +1263,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1679,7 +1271,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1687,7 +1279,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1695,7 +1287,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1703,7 +1295,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1711,7 +1303,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1719,7 +1311,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1727,7 +1319,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1735,7 +1327,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1743,7 +1335,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1751,7 +1343,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1759,7 +1351,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1767,7 +1359,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1775,7 +1367,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1783,7 +1375,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1791,7 +1383,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1799,7 +1391,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1807,7 +1399,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1815,7 +1407,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1830,23 +1422,503 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
       <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +1941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1887,7 +1959,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1906,7 +1978,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1928,7 +2000,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1950,7 +2022,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1972,7 +2044,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1994,7 +2066,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2016,7 +2088,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2038,7 +2110,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2060,7 +2132,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2082,7 +2154,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2104,7 +2176,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2126,7 +2198,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2148,7 +2220,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2170,7 +2242,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="93" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2192,7 +2264,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2214,7 +2286,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2236,7 +2308,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2258,7 +2330,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2280,7 +2352,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2302,7 +2374,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2324,7 +2396,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2346,7 +2418,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2368,7 +2440,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2390,7 +2462,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2412,7 +2484,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2434,7 +2506,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="93" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2456,7 +2528,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="2"/>
@@ -2468,7 +2540,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="2"/>
@@ -2480,7 +2552,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="2"/>
@@ -2492,7 +2564,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="2"/>
@@ -2504,7 +2576,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="2"/>
@@ -2516,7 +2588,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="2"/>
@@ -2528,7 +2600,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="2"/>
@@ -2540,7 +2612,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="2"/>
@@ -2552,7 +2624,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="2"/>
@@ -2564,7 +2636,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="2"/>
@@ -2576,7 +2648,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="2"/>
@@ -2588,7 +2660,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
@@ -2600,7 +2672,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
@@ -2612,7 +2684,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="2"/>
@@ -2624,7 +2696,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="2"/>
@@ -2636,7 +2708,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="2"/>
@@ -2648,7 +2720,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="2"/>
@@ -2660,7 +2732,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="2"/>
@@ -2672,7 +2744,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="2"/>
@@ -2684,7 +2756,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="2"/>
@@ -2696,7 +2768,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="2"/>
@@ -2708,7 +2780,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="2"/>
@@ -2720,7 +2792,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="2"/>
@@ -2732,7 +2804,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="2"/>
@@ -2744,7 +2816,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="2"/>
@@ -2756,7 +2828,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="5"/>
@@ -2767,7 +2839,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="5"/>
@@ -2778,7 +2850,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="5"/>
@@ -2789,7 +2861,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="5"/>
@@ -2800,7 +2872,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="5"/>
@@ -2811,7 +2883,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="5"/>
@@ -2822,7 +2894,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="5"/>
@@ -2833,7 +2905,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="5"/>
@@ -2844,7 +2916,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="5"/>
@@ -2855,7 +2927,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="5"/>
@@ -2866,7 +2938,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="5"/>
@@ -2877,7 +2949,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="5"/>
@@ -2888,7 +2960,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="5"/>
@@ -2899,7 +2971,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="5"/>
@@ -2910,7 +2982,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="5"/>
@@ -2921,7 +2993,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="5"/>
@@ -2932,7 +3004,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="5"/>
@@ -2943,7 +3015,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="5"/>
@@ -2954,7 +3026,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="5"/>
@@ -2965,7 +3037,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="5"/>
@@ -2976,7 +3048,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="5"/>
@@ -2987,7 +3059,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="5"/>
@@ -2998,7 +3070,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="5"/>
@@ -3009,7 +3081,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="5"/>
@@ -3020,7 +3092,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="5"/>
@@ -3031,7 +3103,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="5"/>
@@ -3042,7 +3114,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="5"/>
@@ -3053,7 +3125,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="5"/>
@@ -3064,7 +3136,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="5"/>
@@ -3075,7 +3147,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="5"/>
@@ -3086,7 +3158,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="5"/>
@@ -3097,7 +3169,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="5"/>
@@ -3108,7 +3180,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="5"/>
@@ -3119,7 +3191,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="5"/>
@@ -3130,7 +3202,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="5"/>
@@ -3141,7 +3213,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="5"/>
@@ -3152,7 +3224,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="5"/>
@@ -3163,7 +3235,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="5"/>
@@ -3174,7 +3246,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="5"/>
@@ -3185,7 +3257,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="5"/>
@@ -3196,7 +3268,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="5"/>
@@ -3207,7 +3279,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="5"/>
@@ -3218,7 +3290,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="5"/>
@@ -3229,7 +3301,7 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="5"/>
@@ -3240,7 +3312,7 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="5"/>
@@ -3251,7 +3323,7 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="5"/>
@@ -3262,7 +3334,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="5"/>
@@ -3273,7 +3345,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="5"/>
@@ -3284,7 +3356,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="5"/>
@@ -3295,7 +3367,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="5"/>
@@ -3306,7 +3378,7 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="5"/>
@@ -3317,7 +3389,7 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="5"/>
@@ -3328,7 +3400,7 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="5"/>
@@ -3339,7 +3411,7 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="5"/>
@@ -3350,7 +3422,7 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="5"/>
@@ -3361,7 +3433,7 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="5"/>
@@ -3372,7 +3444,7 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="5"/>
@@ -3383,7 +3455,7 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="5"/>
@@ -3394,7 +3466,7 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="5"/>
@@ -3405,7 +3477,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="5"/>
@@ -3416,7 +3488,7 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="5"/>
@@ -3427,7 +3499,7 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="5"/>
@@ -3438,7 +3510,7 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="5"/>
@@ -3449,7 +3521,7 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="5"/>
@@ -3460,7 +3532,7 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="5"/>
@@ -3471,7 +3543,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="5"/>
@@ -3482,7 +3554,7 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="5"/>
@@ -3493,7 +3565,7 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="5"/>
@@ -3504,7 +3576,7 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="5"/>
@@ -3515,7 +3587,7 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="5"/>
@@ -3526,7 +3598,7 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="5"/>
@@ -3537,7 +3609,7 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="5"/>
@@ -3548,7 +3620,7 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="5"/>
@@ -3559,7 +3631,7 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="5"/>
@@ -3570,7 +3642,7 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="5"/>
@@ -3581,7 +3653,7 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="5"/>
@@ -3592,7 +3664,7 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="5"/>
@@ -3603,7 +3675,7 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="5"/>
@@ -3614,7 +3686,7 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -3626,540 +3698,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" customWidth="1"/>
-    <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="300" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="93" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Test Cases/Iteration 6/Iteration 6 Test Cases v3.xlsx
+++ b/Test Cases/Iteration 6/Iteration 6 Test Cases v3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="133">
   <si>
     <t>No</t>
   </si>
@@ -630,6 +630,9 @@
       </rPr>
       <t>Regularity : 1</t>
     </r>
+  </si>
+  <si>
+    <t>Current Iteration: 6</t>
   </si>
 </sst>
 </file>
@@ -694,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -731,6 +734,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +758,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3432345" cy="3499407"/>
@@ -789,7 +793,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2470149" cy="2077171"/>
@@ -824,7 +828,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3432345" cy="3499407"/>
@@ -859,7 +863,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2470149" cy="2077171"/>
@@ -1422,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1438,56 +1442,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="10"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>79</v>
@@ -1500,13 +1491,13 @@
     </row>
     <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>79</v>
@@ -1519,54 +1510,54 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1574,18 +1565,18 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1593,18 +1584,18 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1612,56 +1603,56 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
+    <row r="11" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1669,47 +1660,50 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
+    <row r="15" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>79</v>
@@ -1717,15 +1711,15 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
+    <row r="16" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>79</v>
@@ -1735,13 +1729,13 @@
     </row>
     <row r="17" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>79</v>
@@ -1751,13 +1745,13 @@
     </row>
     <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>79</v>
@@ -1765,111 +1759,111 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>104</v>
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
+      <c r="A20" s="2">
+        <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
+      <c r="A21" s="1">
+        <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>121</v>
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>124</v>
+      <c r="C25" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>123</v>
@@ -1877,21 +1871,37 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>125</v>
+      <c r="C26" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1905,7 +1915,7 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection sqref="A1:G28"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
